--- a/data/trans_dic/P34B01_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34B01_R-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5206308477282761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.678125603235435</v>
+        <v>0.6781256032354349</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.4772479971954749</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4156121495448281</v>
+        <v>0.4149576641601858</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4685518765085832</v>
+        <v>0.4732990688891504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6368929978206891</v>
+        <v>0.6349560273323913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4209579835243798</v>
+        <v>0.4104590965794815</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5249527718701669</v>
+        <v>0.5247525048026431</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6248038537078081</v>
+        <v>0.625358922918015</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4305996819041771</v>
+        <v>0.4272504205250138</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5095798660754544</v>
+        <v>0.5094426503392432</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6388200716330678</v>
+        <v>0.6430728859564374</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5162273990587141</v>
+        <v>0.5102934723784904</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5680117275979968</v>
+        <v>0.5675632521539877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7202905249182623</v>
+        <v>0.7205127469587029</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5433970159490678</v>
+        <v>0.5341794617172053</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6322930267951996</v>
+        <v>0.6339645729753697</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.697427727352615</v>
+        <v>0.6977647766540079</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5115157818877084</v>
+        <v>0.5023786386777374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5807953610146561</v>
+        <v>0.5823723229144502</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6989503956359963</v>
+        <v>0.6998848632990178</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5968545881902576</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7186611219647856</v>
+        <v>0.7186611219647855</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.544538886219553</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.366381282356532</v>
+        <v>0.3616672280804543</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5441199706508419</v>
+        <v>0.543373902833777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6753848282649612</v>
+        <v>0.6720644704973832</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4869536073738719</v>
+        <v>0.482576082556354</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5281585859675273</v>
+        <v>0.527745596860013</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6192016088199769</v>
+        <v>0.6231428889671021</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4337530380857015</v>
+        <v>0.4350198770939585</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5549407105857223</v>
+        <v>0.5486891863510899</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6635432500852676</v>
+        <v>0.66354484971533</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4744620242976174</v>
+        <v>0.4677457831571545</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6460681371301779</v>
+        <v>0.6518002143073104</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7603610539226202</v>
+        <v>0.7609224999316676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5983855311332928</v>
+        <v>0.5965900004394151</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6310179252685513</v>
+        <v>0.631363341688262</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7010064762030235</v>
+        <v>0.7038085613874481</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5127006167704751</v>
+        <v>0.5134773055818339</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6253376818713732</v>
+        <v>0.62286656378575</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.720711364091265</v>
+        <v>0.721617559481205</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.5518831439370246</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6528399048062138</v>
+        <v>0.6528399048062139</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.4305803839807717</v>
@@ -882,7 +882,7 @@
         <v>0.5495084868334489</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6342396324934109</v>
+        <v>0.634239632493411</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4009940692433976</v>
+        <v>0.4011302863672639</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5083036566890157</v>
+        <v>0.5052842059660848</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6038294901074128</v>
+        <v>0.6097283365902603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3768224997637927</v>
+        <v>0.3686641849851107</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4567617882238957</v>
+        <v>0.4612001705190228</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5257731109927548</v>
+        <v>0.5283711321164442</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.404116603383148</v>
+        <v>0.400536600933307</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5081768602717947</v>
+        <v>0.5089266801871197</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5950651728375177</v>
+        <v>0.5946696333025615</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4884928155114094</v>
+        <v>0.4827090832624329</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5958815766646544</v>
+        <v>0.596370323207842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.693484798456526</v>
+        <v>0.6993645284675791</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5054582323681066</v>
+        <v>0.5000955834301459</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6176014754512495</v>
+        <v>0.6158427294460448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6513903800863658</v>
+        <v>0.6436775012385126</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4707444388424739</v>
+        <v>0.4734313700845316</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5878166442130053</v>
+        <v>0.5886749098019075</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6718521188728813</v>
+        <v>0.6696981145310792</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.5400313948442673</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6334008701184254</v>
+        <v>0.6334008701184253</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.5031683402224831</v>
@@ -982,7 +982,7 @@
         <v>0.5356479082972168</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.666037905059542</v>
+        <v>0.6660379050595419</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.4905425854110779</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4527641212576468</v>
+        <v>0.4505736617039901</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5072717316562868</v>
+        <v>0.5118365387362466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5988172937590889</v>
+        <v>0.599780220163607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.466804879058689</v>
+        <v>0.4678187581594262</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4991134329790248</v>
+        <v>0.4989741012749673</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6351861769286414</v>
+        <v>0.6378258779903719</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4656680519347586</v>
+        <v>0.4680031705192071</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5150216333674085</v>
+        <v>0.5170790843985793</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6269421754681117</v>
+        <v>0.6252209350102137</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5119952605484539</v>
+        <v>0.5119758485951232</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5675359471654892</v>
+        <v>0.568289593564681</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6629437993264767</v>
+        <v>0.6644158848167872</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5415014005732234</v>
+        <v>0.541345967477322</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5701267090676584</v>
+        <v>0.5682526348732859</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6933925425585598</v>
+        <v>0.6957242536155013</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5121309384581687</v>
+        <v>0.5143026658242914</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5605359073660652</v>
+        <v>0.5637310477336894</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6700211175612931</v>
+        <v>0.6687051258798543</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.5459451722342809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6119688485749338</v>
+        <v>0.6119688485749337</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.4868124340500092</v>
@@ -1100,7 +1100,7 @@
         <v>0.5360372125702128</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6206755421723043</v>
+        <v>0.6206755421723041</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4207142207648655</v>
+        <v>0.4219882511836615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.505099990901944</v>
+        <v>0.5068469049708441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5677152846677666</v>
+        <v>0.5662423862316506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4503436911297698</v>
+        <v>0.444432488313872</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4933256661822477</v>
+        <v>0.4916621376721654</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5995174230126114</v>
+        <v>0.5945948489948564</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4493882776960203</v>
+        <v>0.4508789629823914</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5068783556199226</v>
+        <v>0.5062332545009862</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5948785672191463</v>
+        <v>0.5960525046348601</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5129566681052899</v>
+        <v>0.5068088857956614</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5840057465852289</v>
+        <v>0.5857998911097216</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6588921518959904</v>
+        <v>0.6563192922061097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5247148462904029</v>
+        <v>0.5230440939371129</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.569074104835291</v>
+        <v>0.5680480414265558</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6544490816093521</v>
+        <v>0.6524221329348167</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5057976994308282</v>
+        <v>0.5079265407325203</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5622411246464043</v>
+        <v>0.5623672433132553</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6448606619757192</v>
+        <v>0.6451020942095381</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.4775908797821151</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6649604739094003</v>
+        <v>0.6649604739094001</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.4963992908094068</v>
@@ -1200,7 +1200,7 @@
         <v>0.5033788499992659</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.5321395555362791</v>
+        <v>0.5321395555362792</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.4530526817527134</v>
@@ -1209,7 +1209,7 @@
         <v>0.4979705438632544</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.5609725748026653</v>
+        <v>0.5609725748026654</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2201398323521007</v>
+        <v>0.2219813939237442</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4147821362968011</v>
+        <v>0.4110505158469478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5582621982153294</v>
+        <v>0.5619158263455443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4667250319992869</v>
+        <v>0.4665016339366387</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4727435311413122</v>
+        <v>0.4707652609028199</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4950670296403779</v>
+        <v>0.4996217548478112</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4260501694140365</v>
+        <v>0.4268360554143877</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4693800000480404</v>
+        <v>0.4696102417498246</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5240093571188491</v>
+        <v>0.5317439892558988</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3300689221325658</v>
+        <v>0.3314208446504179</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5368511194955937</v>
+        <v>0.530983323872351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7599145199596998</v>
+        <v>0.757717838620992</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5268347554890471</v>
+        <v>0.5268381365199529</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5329505380073754</v>
+        <v>0.5347531227846092</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5626131527960293</v>
+        <v>0.5704125089878805</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4797702445860252</v>
+        <v>0.479277429276433</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.52739435056418</v>
+        <v>0.5293515425164979</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5921006578279491</v>
+        <v>0.5977557280327755</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4276406573147455</v>
+        <v>0.4274017876400465</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5231988730347937</v>
+        <v>0.5232394878983161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6370483270152081</v>
+        <v>0.6337648777010046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4772800691219075</v>
+        <v>0.4757398510630536</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5165777483637773</v>
+        <v>0.5163609629003544</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6061475291172713</v>
+        <v>0.6071682574605488</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4589019960409491</v>
+        <v>0.4576434178499175</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5244839157691396</v>
+        <v>0.5248760955921105</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6249394354453127</v>
+        <v>0.6249117341744104</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4614256909733713</v>
+        <v>0.4626759221899737</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5583756303622802</v>
+        <v>0.5590182070631426</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6714573120771591</v>
+        <v>0.6708767924915934</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5118937181094139</v>
+        <v>0.5105145982578455</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.551369253615798</v>
+        <v>0.5506110271277601</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6346784090643719</v>
+        <v>0.635444619622914</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4828022453025598</v>
+        <v>0.4825586660729895</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5481753688739692</v>
+        <v>0.5487437365090351</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6473974293622901</v>
+        <v>0.648433931688842</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>181710</v>
+        <v>181424</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>201052</v>
+        <v>203089</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>350685</v>
+        <v>349618</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>132372</v>
+        <v>129071</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>182187</v>
+        <v>182118</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>303867</v>
+        <v>304137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>323667</v>
+        <v>321149</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>395509</v>
+        <v>395402</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>662430</v>
+        <v>666840</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>225700</v>
+        <v>223106</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>243729</v>
+        <v>243537</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>396605</v>
+        <v>396727</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>170873</v>
+        <v>167975</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>219440</v>
+        <v>220021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>339187</v>
+        <v>339351</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>384489</v>
+        <v>377620</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>450783</v>
+        <v>452007</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>724783</v>
+        <v>725752</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>153439</v>
+        <v>151465</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>205257</v>
+        <v>204975</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>326354</v>
+        <v>324750</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>164596</v>
+        <v>163116</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>196619</v>
+        <v>196465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>261101</v>
+        <v>262763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>328268</v>
+        <v>329227</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>415928</v>
+        <v>411243</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>600431</v>
+        <v>600432</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>198703</v>
+        <v>195891</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>243714</v>
+        <v>245877</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>367416</v>
+        <v>367687</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>202261</v>
+        <v>201654</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>234911</v>
+        <v>235040</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>295596</v>
+        <v>296778</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>388016</v>
+        <v>388604</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>468691</v>
+        <v>466838</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>652162</v>
+        <v>652982</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>252032</v>
+        <v>252118</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>265291</v>
+        <v>263715</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>283969</v>
+        <v>286743</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>98022</v>
+        <v>95900</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>75879</v>
+        <v>76616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>97887</v>
+        <v>98371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>359117</v>
+        <v>355936</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>349644</v>
+        <v>350160</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>390635</v>
+        <v>390375</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>307027</v>
+        <v>303391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>310999</v>
+        <v>311254</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>326132</v>
+        <v>328897</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>131484</v>
+        <v>130089</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102598</v>
+        <v>102306</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>121274</v>
+        <v>119838</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>418326</v>
+        <v>420713</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>404439</v>
+        <v>405030</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>441042</v>
+        <v>439628</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>524758</v>
+        <v>522219</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>583179</v>
+        <v>588427</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>674154</v>
+        <v>675238</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>356996</v>
+        <v>357771</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>412206</v>
+        <v>412091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>545215</v>
+        <v>547481</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>895840</v>
+        <v>900332</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1017432</v>
+        <v>1021497</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1243956</v>
+        <v>1240541</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>593407</v>
+        <v>593385</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>652461</v>
+        <v>653327</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>746348</v>
+        <v>748005</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>414121</v>
+        <v>414002</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>470854</v>
+        <v>469306</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>595177</v>
+        <v>597178</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>985224</v>
+        <v>989402</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1107347</v>
+        <v>1113659</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1329432</v>
+        <v>1326821</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>214815</v>
+        <v>215466</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>313519</v>
+        <v>314603</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>320140</v>
+        <v>319309</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>342947</v>
+        <v>338445</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>364195</v>
+        <v>362967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>495903</v>
+        <v>491832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>571675</v>
+        <v>573571</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>688822</v>
+        <v>687946</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>827524</v>
+        <v>829157</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>261914</v>
+        <v>258775</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>362496</v>
+        <v>363610</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>371555</v>
+        <v>370104</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>399582</v>
+        <v>398310</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>420116</v>
+        <v>419358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>541341</v>
+        <v>539665</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>643434</v>
+        <v>646142</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>764058</v>
+        <v>764229</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>897053</v>
+        <v>897389</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>58494</v>
+        <v>58983</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>119103</v>
+        <v>118031</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>129638</v>
+        <v>130486</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>517762</v>
+        <v>517514</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>511520</v>
+        <v>509380</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>414620</v>
+        <v>418434</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>585845</v>
+        <v>586926</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>642661</v>
+        <v>642976</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>560542</v>
+        <v>568816</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>87703</v>
+        <v>88062</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>154154</v>
+        <v>152469</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>176465</v>
+        <v>175955</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>584445</v>
+        <v>584448</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>576666</v>
+        <v>578616</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>471190</v>
+        <v>477722</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>659714</v>
+        <v>659036</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>722093</v>
+        <v>724772</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>633381</v>
+        <v>639430</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1462463</v>
+        <v>1461647</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1771406</v>
+        <v>1771543</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2182557</v>
+        <v>2171308</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1693500</v>
+        <v>1688035</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1824344</v>
+        <v>1823578</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2192568</v>
+        <v>2196261</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3197663</v>
+        <v>3188893</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3628022</v>
+        <v>3630735</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4401614</v>
+        <v>4401419</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1578003</v>
+        <v>1582279</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1890505</v>
+        <v>1892680</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2300444</v>
+        <v>2298455</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1816318</v>
+        <v>1811424</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1947213</v>
+        <v>1944536</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2295771</v>
+        <v>2298542</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>3364202</v>
+        <v>3362504</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3791903</v>
+        <v>3795835</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4559792</v>
+        <v>4567092</v>
       </c>
     </row>
     <row r="32">
